--- a/misc_docs/related_signals.xlsx
+++ b/misc_docs/related_signals.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevenDas\Documents\Repository\case_management\misc_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2E4C1-F4EE-4218-BEED-1FD24B2D09A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4D1FB-3209-439A-B7E8-6840658B05D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{1774A126-0C7D-484B-853D-5DEF826D0CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1774A126-0C7D-484B-853D-5DEF826D0CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Related Signals" sheetId="1" r:id="rId1"/>
     <sheet name="Available RCM Signals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Related Signals'!$B$1:$G$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Related Signals'!$A$1:$F$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="241">
   <si>
     <t>Engine Shutdown - From High Revs</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Nom_Correction:float</t>
   </si>
   <si>
-    <t>Alternator_Speed:float</t>
-  </si>
-  <si>
     <t>Failure_Bits:float</t>
   </si>
   <si>
@@ -786,12 +783,6 @@
   </si>
   <si>
     <t>COLUMN NAME IN RCM DATA</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>checked</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1310,6 +1301,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,36 +1366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,2007 +1701,1869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23E759-E789-434C-8CC2-74A97CDA4712}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:B61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="D1" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="11" t="s">
         <v>117</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="G2" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="F4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="23"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="35"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="19" t="s">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="F15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="F18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="23"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="23"/>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="23"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="23"/>
+      <c r="F26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="20" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="F80" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="F81" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>242</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>242</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>242</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>242</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="32"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="F82" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="21" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="23"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="23"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="23"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="23"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="24"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="25"/>
+      <c r="C87" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="25"/>
+      <c r="C91" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="25"/>
+      <c r="C94" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="25"/>
+      <c r="C96" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="25"/>
+      <c r="C97" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="25"/>
+      <c r="C98" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="25"/>
+      <c r="C100" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="16"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="25"/>
+      <c r="C101" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="25"/>
+      <c r="C102" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="25"/>
+      <c r="C103" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="16"/>
-    </row>
-    <row r="103" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="25"/>
+      <c r="C104" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="16"/>
-    </row>
-    <row r="104" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="16"/>
-    </row>
-    <row r="105" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="25"/>
+      <c r="C106" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="16"/>
-    </row>
-    <row r="106" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="16"/>
+    </row>
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" s="25"/>
+      <c r="C107" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="16"/>
-    </row>
-    <row r="107" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="17"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="25"/>
+      <c r="C108" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="16"/>
+    </row>
+    <row r="109" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="16"/>
-    </row>
-    <row r="109" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G109" xr:uid="{CB23E759-E789-434C-8CC2-74A97CDA4712}"/>
+  <autoFilter ref="A1:F109" xr:uid="{CB23E759-E789-434C-8CC2-74A97CDA4712}"/>
   <mergeCells count="16">
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="D5:D15"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3734,482 +3584,482 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
